--- a/lesson16/3年7班.xlsx
+++ b/lesson16/3年7班.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F2" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C6" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E7" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F7" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F9" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E10" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F11" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -736,19 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F14" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C15" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E15" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F15" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F16" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F17" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -824,19 +824,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F18" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C19" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D19" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F19" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -871,16 +871,16 @@
         <v>76</v>
       </c>
       <c r="C20" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D20" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E20" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F20" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C21" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -912,19 +912,19 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>66</v>
+      </c>
+      <c r="C22" t="n">
+        <v>71</v>
+      </c>
+      <c r="D22" t="n">
         <v>100</v>
       </c>
-      <c r="C22" t="n">
-        <v>84</v>
-      </c>
-      <c r="D22" t="n">
-        <v>73</v>
-      </c>
       <c r="E22" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
       </c>
       <c r="F23" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C24" t="n">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F24" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F25" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C26" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E26" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D27" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F27" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D28" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C29" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D29" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F29" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -1088,19 +1088,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C30" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
@@ -1110,19 +1110,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F31" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C32" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D32" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E32" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F32" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -1154,19 +1154,19 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>52</v>
+      </c>
+      <c r="C33" t="n">
+        <v>93</v>
+      </c>
+      <c r="D33" t="n">
+        <v>75</v>
+      </c>
+      <c r="E33" t="n">
         <v>53</v>
       </c>
-      <c r="C33" t="n">
+      <c r="F33" t="n">
         <v>64</v>
-      </c>
-      <c r="D33" t="n">
-        <v>86</v>
-      </c>
-      <c r="E33" t="n">
-        <v>60</v>
-      </c>
-      <c r="F33" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -1176,19 +1176,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C34" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D34" t="n">
         <v>60</v>
       </c>
       <c r="E34" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F34" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
@@ -1198,19 +1198,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E35" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F35" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -1220,19 +1220,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C36" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E36" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F36" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -1242,19 +1242,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D37" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F37" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C38" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D38" t="n">
         <v>100</v>
       </c>
       <c r="E38" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F38" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
@@ -1286,19 +1286,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C39" t="n">
         <v>60</v>
       </c>
       <c r="D39" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E39" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F39" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -1308,19 +1308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C40" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D40" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E40" t="n">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F40" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -1330,19 +1330,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C41" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E41" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F41" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -1352,19 +1352,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C42" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D42" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E42" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F42" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -1374,19 +1374,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C43" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D43" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E43" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F43" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -1396,19 +1396,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D44" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E44" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F44" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
@@ -1418,19 +1418,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C45" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D45" t="n">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E45" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45" t="n">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -1440,19 +1440,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C46" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D46" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E46" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="F46" t="n">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -1462,19 +1462,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C47" t="n">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D47" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E47" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F47" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
@@ -1484,19 +1484,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C48" t="n">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D48" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E48" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F48" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
@@ -1506,19 +1506,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C49" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D49" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E49" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F49" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
@@ -1528,19 +1528,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C50" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D50" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E50" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F50" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51">
@@ -1550,19 +1550,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C51" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D51" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E51" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F51" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
